--- a/cxc general.xlsx
+++ b/cxc general.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>Empleador</t>
   </si>
@@ -178,15 +178,9 @@
     <t>Marta Cecilia Guzman Camilo</t>
   </si>
   <si>
-    <t>Masorel dorescat masuero: fransua</t>
-  </si>
-  <si>
     <t>Maximina Peña Marte: mecho</t>
   </si>
   <si>
-    <t>Mayker Yoel Batista</t>
-  </si>
-  <si>
     <t>Mayra Magalis</t>
   </si>
   <si>
@@ -224,9 +218,6 @@
   </si>
   <si>
     <t>Saul Reyes</t>
-  </si>
-  <si>
-    <t>Saula Elveus: vecina</t>
   </si>
   <si>
     <t>Toribio Perdomo Ramirez: Raulin</t>
@@ -251,7 +242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +274,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -322,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -338,6 +336,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,15 +642,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="3" customWidth="1"/>
     <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
@@ -761,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="3">
         <v>550</v>
@@ -781,7 +781,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C7" s="3">
         <v>300</v>
@@ -876,23 +876,23 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="8">
         <v>1500</v>
       </c>
-      <c r="D13">
-        <v>86</v>
-      </c>
-      <c r="E13">
-        <v>13</v>
-      </c>
-      <c r="F13">
+      <c r="D13" s="7">
+        <v>86</v>
+      </c>
+      <c r="E13" s="7">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7">
         <v>85</v>
       </c>
     </row>
@@ -984,7 +984,7 @@
         <v>54</v>
       </c>
       <c r="C18" s="3">
-        <v>150</v>
+        <v>5000</v>
       </c>
       <c r="D18">
         <v>86</v>
@@ -1001,10 +1001,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3">
-        <v>5000</v>
+        <v>575</v>
       </c>
       <c r="D19">
         <v>86</v>
@@ -1021,10 +1021,10 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="3">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="D20">
         <v>86</v>
@@ -1041,10 +1041,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" s="3">
-        <v>650</v>
+        <v>2850</v>
       </c>
       <c r="D21">
         <v>86</v>
@@ -1061,10 +1061,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" s="3">
-        <v>2850</v>
+        <v>1150</v>
       </c>
       <c r="D22">
         <v>86</v>
@@ -1076,23 +1076,23 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1150</v>
-      </c>
-      <c r="D23">
-        <v>86</v>
-      </c>
-      <c r="E23">
-        <v>13</v>
-      </c>
-      <c r="F23">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D24">
+        <v>86</v>
+      </c>
+      <c r="E24">
+        <v>13</v>
+      </c>
+      <c r="F24">
         <v>85</v>
       </c>
     </row>
@@ -1101,10 +1101,10 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C25" s="3">
-        <v>1000</v>
+        <v>2050</v>
       </c>
       <c r="D25">
         <v>86</v>
@@ -1121,10 +1121,10 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="3">
-        <v>2050</v>
+        <v>1100</v>
       </c>
       <c r="D26">
         <v>86</v>
@@ -1141,10 +1141,10 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="D27">
         <v>86</v>
@@ -1161,10 +1161,10 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C28" s="3">
-        <v>1300</v>
+        <v>560</v>
       </c>
       <c r="D28">
         <v>86</v>
@@ -1181,10 +1181,10 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C29" s="3">
-        <v>560</v>
+        <v>2400</v>
       </c>
       <c r="D29">
         <v>86</v>
@@ -1201,10 +1201,10 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C30" s="3">
-        <v>2400</v>
+        <v>870</v>
       </c>
       <c r="D30">
         <v>86</v>
@@ -1221,10 +1221,10 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="3">
-        <v>870</v>
+        <v>2200</v>
       </c>
       <c r="D31">
         <v>86</v>
@@ -1244,7 +1244,7 @@
         <v>50</v>
       </c>
       <c r="C32" s="3">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="D32">
         <v>86</v>
@@ -1261,10 +1261,10 @@
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="3">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="D33">
         <v>86</v>
@@ -1281,10 +1281,10 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="D34">
         <v>86</v>
@@ -1301,10 +1301,10 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C35" s="3">
-        <v>1000</v>
+        <v>955</v>
       </c>
       <c r="D35">
         <v>86</v>
@@ -1318,13 +1318,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C36" s="3">
-        <v>955</v>
+        <v>1200</v>
       </c>
       <c r="D36">
         <v>86</v>
@@ -1333,38 +1333,18 @@
         <v>13</v>
       </c>
       <c r="F36">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="3">
-        <v>645</v>
-      </c>
-      <c r="D37">
-        <v>86</v>
-      </c>
-      <c r="E37">
-        <v>13</v>
-      </c>
-      <c r="F37">
         <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C38" s="3">
-        <v>1200</v>
+        <v>2170</v>
       </c>
       <c r="D38">
         <v>86</v>
@@ -1373,6 +1353,26 @@
         <v>13</v>
       </c>
       <c r="F38">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D39">
+        <v>86</v>
+      </c>
+      <c r="E39">
+        <v>13</v>
+      </c>
+      <c r="F39">
         <v>85</v>
       </c>
     </row>
@@ -1381,10 +1381,10 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C40" s="3">
-        <v>2170</v>
+        <v>1500</v>
       </c>
       <c r="D40">
         <v>86</v>
@@ -1401,7 +1401,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C41" s="3">
         <v>1500</v>
@@ -1421,7 +1421,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C42" s="3">
         <v>1500</v>
@@ -1441,10 +1441,10 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C43" s="3">
-        <v>1500</v>
+        <v>1750</v>
       </c>
       <c r="D43">
         <v>86</v>
@@ -1461,7 +1461,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C44" s="3">
         <v>1500</v>
@@ -1481,10 +1481,10 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C45" s="3">
-        <v>1750</v>
+        <v>6600</v>
       </c>
       <c r="D45">
         <v>86</v>
@@ -1501,10 +1501,10 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C46" s="3">
-        <v>1500</v>
+        <v>3200</v>
       </c>
       <c r="D46">
         <v>86</v>
@@ -1513,38 +1513,18 @@
         <v>13</v>
       </c>
       <c r="F46">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="3">
-        <v>6600</v>
-      </c>
-      <c r="D47">
-        <v>86</v>
-      </c>
-      <c r="E47">
-        <v>13</v>
-      </c>
-      <c r="F47">
         <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C48" s="3">
-        <v>3200</v>
+        <v>6500</v>
       </c>
       <c r="D48">
         <v>86</v>
@@ -1553,18 +1533,38 @@
         <v>13</v>
       </c>
       <c r="F48">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="D49">
+        <v>86</v>
+      </c>
+      <c r="E49">
+        <v>13</v>
+      </c>
+      <c r="F49">
         <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C50" s="3">
-        <v>6500</v>
+        <v>1100</v>
       </c>
       <c r="D50">
         <v>86</v>
@@ -1573,38 +1573,18 @@
         <v>13</v>
       </c>
       <c r="F50">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="3">
-        <v>3600</v>
-      </c>
-      <c r="D51">
-        <v>86</v>
-      </c>
-      <c r="E51">
-        <v>13</v>
-      </c>
-      <c r="F51">
         <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C52" s="3">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="D52">
         <v>86</v>
@@ -1613,6 +1593,26 @@
         <v>13</v>
       </c>
       <c r="F52">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1150</v>
+      </c>
+      <c r="D53">
+        <v>86</v>
+      </c>
+      <c r="E53">
+        <v>13</v>
+      </c>
+      <c r="F53">
         <v>85</v>
       </c>
     </row>
@@ -1621,10 +1621,10 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C54" s="3">
-        <v>150</v>
+        <v>4000</v>
       </c>
       <c r="D54">
         <v>86</v>
@@ -1633,38 +1633,18 @@
         <v>13</v>
       </c>
       <c r="F54">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1150</v>
-      </c>
-      <c r="D55">
-        <v>86</v>
-      </c>
-      <c r="E55">
-        <v>13</v>
-      </c>
-      <c r="F55">
         <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C56" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="D56">
         <v>86</v>
@@ -1678,13 +1658,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="C57" s="3">
-        <v>4000</v>
+        <v>2170</v>
       </c>
       <c r="D57">
         <v>86</v>
@@ -1693,6 +1673,26 @@
         <v>13</v>
       </c>
       <c r="F57">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="3">
+        <v>900</v>
+      </c>
+      <c r="D58">
+        <v>86</v>
+      </c>
+      <c r="E58">
+        <v>13</v>
+      </c>
+      <c r="F58">
         <v>85</v>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C59" s="3">
         <v>1500</v>
@@ -1718,13 +1718,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C60" s="3">
-        <v>2170</v>
+        <v>500</v>
       </c>
       <c r="D60">
         <v>86</v>
@@ -1738,13 +1738,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C61" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="D61">
         <v>86</v>
@@ -1753,66 +1753,6 @@
         <v>13</v>
       </c>
       <c r="F61">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" t="s">
-        <v>47</v>
-      </c>
-      <c r="C62" s="3">
-        <v>1500</v>
-      </c>
-      <c r="D62">
-        <v>86</v>
-      </c>
-      <c r="E62">
-        <v>13</v>
-      </c>
-      <c r="F62">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="3">
-        <v>500</v>
-      </c>
-      <c r="D63">
-        <v>86</v>
-      </c>
-      <c r="E63">
-        <v>13</v>
-      </c>
-      <c r="F63">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="3">
-        <v>1100</v>
-      </c>
-      <c r="D64">
-        <v>86</v>
-      </c>
-      <c r="E64">
-        <v>13</v>
-      </c>
-      <c r="F64">
         <v>85</v>
       </c>
     </row>
@@ -1840,7 +1780,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
@@ -1880,7 +1820,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B6" s="6">
         <f>SUM(B2:B5)</f>

--- a/cxc general.xlsx
+++ b/cxc general.xlsx
@@ -282,13 +282,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,6 +306,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -320,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -338,6 +343,8 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,43 +843,43 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="10">
         <v>1605</v>
       </c>
-      <c r="D11">
-        <v>86</v>
-      </c>
-      <c r="E11">
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D11" s="9">
+        <v>86</v>
+      </c>
+      <c r="E11" s="9">
+        <v>13</v>
+      </c>
+      <c r="F11" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="10">
         <v>500</v>
       </c>
-      <c r="D12">
-        <v>86</v>
-      </c>
-      <c r="E12">
-        <v>13</v>
-      </c>
-      <c r="F12">
+      <c r="D12" s="9">
+        <v>86</v>
+      </c>
+      <c r="E12" s="9">
+        <v>13</v>
+      </c>
+      <c r="F12" s="9">
         <v>85</v>
       </c>
     </row>
@@ -896,23 +903,23 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="10">
         <v>1500</v>
       </c>
-      <c r="D14">
-        <v>86</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
-      <c r="F14">
+      <c r="D14" s="9">
+        <v>86</v>
+      </c>
+      <c r="E14" s="9">
+        <v>13</v>
+      </c>
+      <c r="F14" s="9">
         <v>85</v>
       </c>
     </row>
@@ -956,7 +963,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -976,7 +983,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -996,7 +1003,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1016,7 +1023,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1024,19 +1031,22 @@
         <v>56</v>
       </c>
       <c r="C20" s="3">
+        <v>1950</v>
+      </c>
+      <c r="D20">
+        <v>86</v>
+      </c>
+      <c r="E20">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>85</v>
+      </c>
+      <c r="G20">
         <v>650</v>
       </c>
-      <c r="D20">
-        <v>86</v>
-      </c>
-      <c r="E20">
-        <v>13</v>
-      </c>
-      <c r="F20">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1055,8 +1065,11 @@
       <c r="F21">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1076,27 +1089,27 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="24" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="10">
         <v>1000</v>
       </c>
-      <c r="D24">
-        <v>86</v>
-      </c>
-      <c r="E24">
-        <v>13</v>
-      </c>
-      <c r="F24">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="9">
+        <v>86</v>
+      </c>
+      <c r="E24" s="9">
+        <v>13</v>
+      </c>
+      <c r="F24" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1116,27 +1129,27 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="26" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="10">
         <v>1100</v>
       </c>
-      <c r="D26">
-        <v>86</v>
-      </c>
-      <c r="E26">
-        <v>13</v>
-      </c>
-      <c r="F26">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="9">
+        <v>86</v>
+      </c>
+      <c r="E26" s="9">
+        <v>13</v>
+      </c>
+      <c r="F26" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1156,47 +1169,47 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="28" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="10">
         <v>560</v>
       </c>
-      <c r="D28">
-        <v>86</v>
-      </c>
-      <c r="E28">
-        <v>13</v>
-      </c>
-      <c r="F28">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D28" s="9">
+        <v>86</v>
+      </c>
+      <c r="E28" s="9">
+        <v>13</v>
+      </c>
+      <c r="F28" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="10">
         <v>2400</v>
       </c>
-      <c r="D29">
-        <v>86</v>
-      </c>
-      <c r="E29">
-        <v>13</v>
-      </c>
-      <c r="F29">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="9">
+        <v>86</v>
+      </c>
+      <c r="E29" s="9">
+        <v>13</v>
+      </c>
+      <c r="F29" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1216,7 +1229,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1236,7 +1249,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>

--- a/cxc general.xlsx
+++ b/cxc general.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personales\utilitario\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="11655" windowHeight="2580"/>
   </bookViews>
@@ -15,12 +10,12 @@
     <sheet name="CUENTA X COBRAR" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
   <si>
     <t>Empleador</t>
   </si>
@@ -124,9 +119,6 @@
     <t>Mister zapato</t>
   </si>
   <si>
-    <t>Francisco Renan moreta acosta: Ernan</t>
-  </si>
-  <si>
     <t>Gely Ballenilla Peña: gelen</t>
   </si>
   <si>
@@ -142,9 +134,6 @@
     <t>Israel Morillo Medina: el guardia</t>
   </si>
   <si>
-    <t>Jose de la Rosa: Pilloyo</t>
-  </si>
-  <si>
     <t>Jose de leon Montero: Gabriel</t>
   </si>
   <si>
@@ -236,13 +225,16 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>Francisco Renan moreta acosta: Hernan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,10 +333,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,7 +355,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -405,7 +397,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,10 +429,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,7 +463,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -648,22 +638,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="3" customWidth="1"/>
     <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -703,7 +693,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -723,52 +713,52 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" s="7" customFormat="1">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="8">
         <v>800</v>
       </c>
-      <c r="D4">
-        <v>86</v>
-      </c>
-      <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D4" s="7">
+        <v>86</v>
+      </c>
+      <c r="E4" s="7">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="8">
         <v>300</v>
       </c>
-      <c r="D5">
-        <v>86</v>
-      </c>
-      <c r="E5">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="7">
+        <v>86</v>
+      </c>
+      <c r="E5" s="7">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="3">
         <v>550</v>
@@ -783,12 +773,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="3">
         <v>300</v>
@@ -803,7 +793,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -823,112 +813,112 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" s="7" customFormat="1">
+      <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="8">
         <v>1390</v>
       </c>
-      <c r="D10">
-        <v>86</v>
-      </c>
-      <c r="E10">
-        <v>13</v>
-      </c>
-      <c r="F10">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="D10" s="7">
+        <v>86</v>
+      </c>
+      <c r="E10" s="7">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="7" customFormat="1">
+      <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>1605</v>
       </c>
-      <c r="D11" s="9">
-        <v>86</v>
-      </c>
-      <c r="E11" s="9">
-        <v>13</v>
-      </c>
-      <c r="F11" s="9">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="D11" s="7">
+        <v>86</v>
+      </c>
+      <c r="E11" s="7">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="7" customFormat="1">
+      <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>500</v>
       </c>
-      <c r="D12" s="9">
-        <v>86</v>
-      </c>
-      <c r="E12" s="9">
-        <v>13</v>
-      </c>
-      <c r="F12" s="9">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="D12" s="7">
+        <v>86</v>
+      </c>
+      <c r="E12" s="7">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1">
+      <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="B13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="10">
         <v>1500</v>
       </c>
-      <c r="D13" s="7">
-        <v>86</v>
-      </c>
-      <c r="E13" s="7">
-        <v>13</v>
-      </c>
-      <c r="F13" s="7">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="D13" s="9">
+        <v>86</v>
+      </c>
+      <c r="E13" s="9">
+        <v>13</v>
+      </c>
+      <c r="F13" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="7" customFormat="1">
+      <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="10">
+      <c r="B14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="8">
         <v>1500</v>
       </c>
-      <c r="D14" s="9">
-        <v>86</v>
-      </c>
-      <c r="E14" s="9">
-        <v>13</v>
-      </c>
-      <c r="F14" s="9">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="7">
+        <v>86</v>
+      </c>
+      <c r="E14" s="7">
+        <v>13</v>
+      </c>
+      <c r="F14" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3">
         <v>1850</v>
@@ -943,12 +933,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3">
         <v>1000</v>
@@ -963,12 +953,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3">
         <v>3750</v>
@@ -983,12 +973,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3">
         <v>5000</v>
@@ -1003,32 +993,32 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:7" s="7" customFormat="1">
+      <c r="A19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="8">
         <v>575</v>
       </c>
-      <c r="D19">
-        <v>86</v>
-      </c>
-      <c r="E19">
-        <v>13</v>
-      </c>
-      <c r="F19">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="7">
+        <v>86</v>
+      </c>
+      <c r="E19" s="7">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="3">
         <v>1950</v>
@@ -1046,12 +1036,12 @@
         <v>650</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="3">
         <v>2850</v>
@@ -1069,12 +1059,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22" s="3">
         <v>1150</v>
@@ -1089,27 +1079,27 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="9" t="s">
+    <row r="24" spans="1:7" s="7" customFormat="1">
+      <c r="A24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="8">
         <v>1000</v>
       </c>
-      <c r="D24" s="9">
-        <v>86</v>
-      </c>
-      <c r="E24" s="9">
-        <v>13</v>
-      </c>
-      <c r="F24" s="9">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="7">
+        <v>86</v>
+      </c>
+      <c r="E24" s="7">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1129,27 +1119,27 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="9" t="s">
+    <row r="26" spans="1:7" s="7" customFormat="1">
+      <c r="A26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="8">
         <v>1100</v>
       </c>
-      <c r="D26" s="9">
-        <v>86</v>
-      </c>
-      <c r="E26" s="9">
-        <v>13</v>
-      </c>
-      <c r="F26" s="9">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="7">
+        <v>86</v>
+      </c>
+      <c r="E26" s="7">
+        <v>13</v>
+      </c>
+      <c r="F26" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1169,52 +1159,52 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="9" t="s">
+    <row r="28" spans="1:7" s="7" customFormat="1">
+      <c r="A28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="8">
         <v>560</v>
       </c>
-      <c r="D28" s="9">
-        <v>86</v>
-      </c>
-      <c r="E28" s="9">
-        <v>13</v>
-      </c>
-      <c r="F28" s="9">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="10">
+      <c r="D28" s="7">
+        <v>86</v>
+      </c>
+      <c r="E28" s="7">
+        <v>13</v>
+      </c>
+      <c r="F28" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="7" customFormat="1">
+      <c r="A29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="8">
         <v>2400</v>
       </c>
-      <c r="D29" s="9">
-        <v>86</v>
-      </c>
-      <c r="E29" s="9">
-        <v>13</v>
-      </c>
-      <c r="F29" s="9">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D29" s="7">
+        <v>86</v>
+      </c>
+      <c r="E29" s="7">
+        <v>13</v>
+      </c>
+      <c r="F29" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C30" s="3">
         <v>870</v>
@@ -1229,12 +1219,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C31" s="3">
         <v>2200</v>
@@ -1249,12 +1239,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" s="3">
         <v>600</v>
@@ -1269,52 +1259,52 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="3">
+    <row r="33" spans="1:7" s="7" customFormat="1">
+      <c r="A33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="8">
         <v>1100</v>
       </c>
-      <c r="D33">
-        <v>86</v>
-      </c>
-      <c r="E33">
-        <v>13</v>
-      </c>
-      <c r="F33">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="3">
+      <c r="D33" s="7">
+        <v>86</v>
+      </c>
+      <c r="E33" s="7">
+        <v>13</v>
+      </c>
+      <c r="F33" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="7" customFormat="1">
+      <c r="A34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="8">
         <v>1000</v>
       </c>
-      <c r="D34">
-        <v>86</v>
-      </c>
-      <c r="E34">
-        <v>13</v>
-      </c>
-      <c r="F34">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="7">
+        <v>86</v>
+      </c>
+      <c r="E34" s="7">
+        <v>13</v>
+      </c>
+      <c r="F34" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" s="3">
         <v>955</v>
@@ -1329,27 +1319,27 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="3">
+    <row r="36" spans="1:7" s="7" customFormat="1">
+      <c r="A36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="8">
         <v>1200</v>
       </c>
-      <c r="D36">
-        <v>86</v>
-      </c>
-      <c r="E36">
-        <v>13</v>
-      </c>
-      <c r="F36">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="7">
+        <v>86</v>
+      </c>
+      <c r="E36" s="7">
+        <v>13</v>
+      </c>
+      <c r="F36" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1369,47 +1359,47 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:7" s="7" customFormat="1">
+      <c r="A39" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="8">
         <v>1500</v>
       </c>
-      <c r="D39">
-        <v>86</v>
-      </c>
-      <c r="E39">
-        <v>13</v>
-      </c>
-      <c r="F39">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="D39" s="7">
+        <v>86</v>
+      </c>
+      <c r="E39" s="7">
+        <v>13</v>
+      </c>
+      <c r="F39" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="7" customFormat="1">
+      <c r="A40" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="8">
         <v>1500</v>
       </c>
-      <c r="D40">
-        <v>86</v>
-      </c>
-      <c r="E40">
-        <v>13</v>
-      </c>
-      <c r="F40">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D40" s="7">
+        <v>86</v>
+      </c>
+      <c r="E40" s="7">
+        <v>13</v>
+      </c>
+      <c r="F40" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1429,32 +1419,32 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:7" s="7" customFormat="1">
+      <c r="A42" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="3">
+      <c r="B42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="8">
         <v>1500</v>
       </c>
-      <c r="D42">
-        <v>86</v>
-      </c>
-      <c r="E42">
-        <v>13</v>
-      </c>
-      <c r="F42">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="7">
+        <v>86</v>
+      </c>
+      <c r="E42" s="7">
+        <v>13</v>
+      </c>
+      <c r="F42" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43" s="3">
         <v>1750</v>
@@ -1469,67 +1459,70 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:7" s="7" customFormat="1">
+      <c r="A44" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="3">
+      <c r="B44" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="8">
         <v>1500</v>
       </c>
-      <c r="D44">
-        <v>86</v>
-      </c>
-      <c r="E44">
-        <v>13</v>
-      </c>
-      <c r="F44">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="D44" s="7">
+        <v>86</v>
+      </c>
+      <c r="E44" s="7">
+        <v>13</v>
+      </c>
+      <c r="F44" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="7" customFormat="1">
+      <c r="A45" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="3">
+      <c r="B45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="8">
         <v>6600</v>
       </c>
-      <c r="D45">
-        <v>86</v>
-      </c>
-      <c r="E45">
-        <v>13</v>
-      </c>
-      <c r="F45">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="D45" s="7">
+        <v>86</v>
+      </c>
+      <c r="E45" s="7">
+        <v>13</v>
+      </c>
+      <c r="F45" s="7">
+        <v>85</v>
+      </c>
+      <c r="G45" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="7" customFormat="1">
+      <c r="A46" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="3">
+      <c r="B46" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="8">
         <v>3200</v>
       </c>
-      <c r="D46">
-        <v>86</v>
-      </c>
-      <c r="E46">
-        <v>13</v>
-      </c>
-      <c r="F46">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="7">
+        <v>86</v>
+      </c>
+      <c r="E46" s="7">
+        <v>13</v>
+      </c>
+      <c r="F46" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -1549,12 +1542,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C49" s="3">
         <v>3600</v>
@@ -1569,12 +1562,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C50" s="3">
         <v>1100</v>
@@ -1589,35 +1582,35 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:6" s="7" customFormat="1">
+      <c r="A52" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="3">
-        <v>150</v>
-      </c>
-      <c r="D52">
-        <v>86</v>
-      </c>
-      <c r="E52">
-        <v>13</v>
-      </c>
-      <c r="F52">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="8">
+        <v>1150</v>
+      </c>
+      <c r="D52" s="7">
+        <v>86</v>
+      </c>
+      <c r="E52" s="7">
+        <v>13</v>
+      </c>
+      <c r="F52" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C53" s="3">
-        <v>1150</v>
+        <v>4000</v>
       </c>
       <c r="D53">
         <v>86</v>
@@ -1629,95 +1622,95 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="3">
-        <v>4000</v>
-      </c>
-      <c r="D54">
-        <v>86</v>
-      </c>
-      <c r="E54">
-        <v>13</v>
-      </c>
-      <c r="F54">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="7" customFormat="1">
+      <c r="A55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="8">
+        <v>1500</v>
+      </c>
+      <c r="D55" s="7">
+        <v>86</v>
+      </c>
+      <c r="E55" s="7">
+        <v>13</v>
+      </c>
+      <c r="F55" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C56" s="3">
+        <v>2170</v>
+      </c>
+      <c r="D56">
+        <v>86</v>
+      </c>
+      <c r="E56">
+        <v>13</v>
+      </c>
+      <c r="F56">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="7" customFormat="1">
+      <c r="A57" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="8">
+        <v>900</v>
+      </c>
+      <c r="D57" s="7">
+        <v>86</v>
+      </c>
+      <c r="E57" s="7">
+        <v>13</v>
+      </c>
+      <c r="F57" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="7" customFormat="1">
+      <c r="A58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="8">
         <v>1500</v>
       </c>
-      <c r="D56">
-        <v>86</v>
-      </c>
-      <c r="E56">
-        <v>13</v>
-      </c>
-      <c r="F56">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="3">
-        <v>2170</v>
-      </c>
-      <c r="D57">
-        <v>86</v>
-      </c>
-      <c r="E57">
-        <v>13</v>
-      </c>
-      <c r="F57">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58" s="3">
-        <v>900</v>
-      </c>
-      <c r="D58">
-        <v>86</v>
-      </c>
-      <c r="E58">
-        <v>13</v>
-      </c>
-      <c r="F58">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D58" s="7">
+        <v>86</v>
+      </c>
+      <c r="E58" s="7">
+        <v>13</v>
+      </c>
+      <c r="F58" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C59" s="3">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="D59">
         <v>86</v>
@@ -1729,15 +1722,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C60" s="3">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="D60">
         <v>86</v>
@@ -1746,26 +1739,6 @@
         <v>13</v>
       </c>
       <c r="F60">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="3">
-        <v>1100</v>
-      </c>
-      <c r="D61">
-        <v>86</v>
-      </c>
-      <c r="E61">
-        <v>13</v>
-      </c>
-      <c r="F61">
         <v>85</v>
       </c>
     </row>
@@ -1779,27 +1752,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1807,7 +1780,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1815,25 +1788,25 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="6">
         <f>SUM(B2:B5)</f>
